--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_010.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_010.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295038EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295001AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295030EK2.10) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295006AA1.05) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
-  </si>
-  <si>
-    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
-  </si>
-  <si>
-    <t>(295031EK2.04) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor core isolation cooling</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+    <t>(295031EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295037EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cooldown effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
+  </si>
+  <si>
+    <t>(295025EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) ARI/RPT/ATWS</t>
+  </si>
+  <si>
+    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295003AK2.06) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
+  </si>
+  <si>
+    <t>(295038EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Meteorological instrumentation</t>
+  </si>
+  <si>
+    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
+  </si>
+  <si>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295026EK2.04) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295017AK2.03) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Off-gas system</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(500000EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295002AA2.07) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
+  </si>
+  <si>
+    <t>(295036EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum normal operating limit</t>
+  </si>
+  <si>
+    <t>(211000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) RWCU system lineup</t>
+  </si>
+  <si>
+    <t>(223002A4.01) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) System valve operations</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(215005A2.04) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SCRAM trip signals</t>
+  </si>
+  <si>
+    <t>(239002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Discharge line vacuum breaker</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(400000K4.05) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Surge tank level control</t>
+  </si>
+  <si>
+    <t>(209001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(215004K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A4.01) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Offsite radioactive release limits </t>
+  </si>
+  <si>
+    <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
+  </si>
+  <si>
+    <t>(264000K2.05) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Lube oil pumps</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215003A3.01) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Meters and recorders </t>
+  </si>
+  <si>
+    <t>(262001K4.04) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Protective relaying</t>
+  </si>
+  <si>
+    <t>(203000K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Low-pressure core spray system</t>
+  </si>
+  <si>
+    <t>(510000K3.04) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291002K1.07) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Theory and operation of level detectors</t>
+  </si>
+  <si>
+    <t>(211000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Explosive squib valves status</t>
+  </si>
+  <si>
+    <t>(223002A4.06) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Confirmation of initiation to completion</t>
+  </si>
+  <si>
+    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(218000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Primary containment/drywell pressure</t>
+  </si>
+  <si>
+    <t>(241000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(510001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Circulating water pressures</t>
+  </si>
+  <si>
+    <t>(290002K3.11) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
+  </si>
+  <si>
+    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
+  </si>
+  <si>
+    <t>(256000A2.10) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main turbine trip</t>
+  </si>
+  <si>
+    <t>(230000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.7 / 45.7) Low suppression pool level</t>
+  </si>
+  <si>
+    <t>(286000A3.03) Ability to monitor automatic operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Actuation of fire detectors</t>
+  </si>
+  <si>
+    <t>(202002K4.05) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Limiting recirculation pump speed/loop flow mismatch</t>
+  </si>
+  <si>
+    <t>(223001K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Penetration cooling system</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292008K1.07) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (CRITICALITY) Define criticality as related to a reactor startup</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(293006K1.22) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define or explain the following term or concept: Two-phase flow</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
   </si>
   <si>
-    <t xml:space="preserve">(295016AA1.05) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) DC electrical distribution </t>
-  </si>
-  <si>
-    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295025EK2.07) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
-  </si>
-  <si>
-    <t>(295008AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Feed flow/steam flow mismatch</t>
-  </si>
-  <si>
-    <t>(295014AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Changing recirculation flow</t>
-  </si>
-  <si>
-    <t>(295032EK2.02) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295020AA2.03) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295033EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(209001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(215005A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) APRM (gain adjustment factor)</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
-  </si>
-  <si>
-    <t>(203000A4.01) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Pumps</t>
-  </si>
-  <si>
-    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(262001K4.05) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Paralleling of AC sources</t>
-  </si>
-  <si>
-    <t>(217000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler Instrumentation</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262002K3.18) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(510000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
-  </si>
-  <si>
-    <t>(223002A2.05) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Nuclear boiler instrumentation failures</t>
-  </si>
-  <si>
-    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(215003A4.03) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM range switches</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(264000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Generator load limits</t>
-  </si>
-  <si>
-    <t>(211000K4.09) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dampening of positive displacement pump discharge oscillations</t>
-  </si>
-  <si>
-    <t>(259002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291001K1.01) VALVES (CFR: 41.3) The function and operation of safety valves</t>
-  </si>
-  <si>
-    <t>(400000K3.18) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor feedwater system</t>
-  </si>
-  <si>
-    <t>(209001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Torus/suppression pool water level</t>
-  </si>
-  <si>
-    <t>(215005A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Recirculation flow control valve position (BWR 5, 6)</t>
-  </si>
-  <si>
-    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
-  </si>
-  <si>
-    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(204000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(510001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(241000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Main turbine steam flow</t>
-  </si>
-  <si>
-    <t>(215001A2.07) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to retract during accident conditions (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(201003K4.05) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Rod position indication</t>
-  </si>
-  <si>
-    <t>(226001A4.07) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve logic reset/bypass/override</t>
-  </si>
-  <si>
-    <t>(201001A3.11) Ability to monitor automatic operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.9 / 45.1-6 / 45.8 / 45.12-13) SDV level</t>
-  </si>
-  <si>
-    <t>(271000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.4) Offsite release rate</t>
-  </si>
-  <si>
-    <t>(256000K4.06) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Control of extraction steam</t>
-  </si>
-  <si>
-    <t>(245000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
-  </si>
-  <si>
-    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
-  </si>
-  <si>
-    <t>(293006K1.12) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define pump shutoff head, pump runout, and axial thrust</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.08) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
-  </si>
-  <si>
-    <t>(203000A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000A2.09) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Rupture disc failure: exhaust-diaphragm</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(216000A2.14) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Partial or complete loss of recirculation flow</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295033EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Area radiation levels </t>
+  </si>
+  <si>
+    <t>(215005A2.05) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of recirculation flow signal</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201003A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Low HCU accumulator pressure or high-level</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K2</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295032</t>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293005</t>
   </si>
   <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295020</t>
+    <t>295013</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>215001</t>
+    <t>202001</t>
   </si>
   <si>
     <t>201003</t>
   </si>
   <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
     <t>245000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>290002</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
         <v>114</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D35" t="s">
         <v>115</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="s">
         <v>114</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D46" t="s">
         <v>115</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="D55" t="s">
         <v>109</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1922,7 +1922,7 @@
         <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D63" t="s">
         <v>115</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="D77" t="s">
         <v>106</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
         <v>106</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
         <v>106</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
         <v>106</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
         <v>106</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
         <v>106</v>
@@ -2449,7 +2449,7 @@
         <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D89" t="s">
         <v>106</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
         <v>106</v>
@@ -2517,7 +2517,7 @@
         <v>4.2</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D93" t="s">
         <v>106</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
